--- a/config/security/hc_info.xlsx
+++ b/config/security/hc_info.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\adoration\config\security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E58DA4-C847-47F1-ACE0-98A32623D561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B350F-14B0-4C64-A391-D35C9144B4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="480" windowWidth="24585" windowHeight="11385" xr2:uid="{0455A818-22EF-4517-BB38-855DBC0A67FD}"/>
+    <workbookView xWindow="2775" yWindow="1140" windowWidth="24585" windowHeight="11385" xr2:uid="{0455A818-22EF-4517-BB38-855DBC0A67FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Órakoordinátor" sheetId="13" r:id="rId1"/>
     <sheet name="Adatok" sheetId="9" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Órakoordinátor!$B$3:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Órakoordinátor!$B$3:$G$42</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="26">
   <si>
     <t>Órák</t>
   </si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>Telefon</t>
-  </si>
-  <si>
-    <t>Mobil</t>
   </si>
   <si>
     <t>e-mail</t>
@@ -181,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -326,19 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -387,7 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -396,80 +377,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,26 +411,51 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -519,41 +475,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ImádásraJelentkezettek"/>
-      <sheetName val="FEDETTSÉG"/>
-      <sheetName val="HIBÁK"/>
-      <sheetName val="Hajnal"/>
-      <sheetName val="Délelőtt"/>
-      <sheetName val="Délután"/>
-      <sheetName val="Este"/>
-      <sheetName val="Órafelelősöknek"/>
-      <sheetName val="Adorálóknak"/>
-      <sheetName val="Tartaléklista"/>
-      <sheetName val="Adorálók listája"/>
-      <sheetName val="Weboldal1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,24 +777,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:I42"/>
+  <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4"/>
@@ -881,833 +802,362 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11" t="str">
-        <f>IF(ISERROR(VLOOKUP(B7,[1]ImádásraJelentkezettek!#REF!,2,FALSE)),"",VLOOKUP(B7,[1]ImádásraJelentkezettek!#REF!,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="str">
-        <f>IF(ISERROR(VLOOKUP(B7,[1]ImádásraJelentkezettek!#REF!,3,FALSE)),"",VLOOKUP(B7,[1]ImádásraJelentkezettek!#REF!,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17" t="str">
-        <f>IF(ISERROR(VLOOKUP(B11,[1]ImádásraJelentkezettek!#REF!,2,FALSE)),"",VLOOKUP(B11,[1]ImádásraJelentkezettek!#REF!,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="21" t="str">
-        <f>IF(ISERROR(VLOOKUP(B11,[1]ImádásraJelentkezettek!#REF!,3,FALSE)),"",VLOOKUP(B11,[1]ImádásraJelentkezettek!#REF!,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25" t="str">
-        <f t="shared" ref="E15:F42" si="0">IF(A68=0,"",A68)</f>
-        <v/>
-      </c>
-      <c r="F15" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26" t="str">
-        <f t="shared" ref="H15:I42" si="1">IF(B15="","",E68)</f>
-        <v/>
-      </c>
-      <c r="I15" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I16" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I17" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I18" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I19" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I20" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I21" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I24" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I25" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I26" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I27" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I28" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I29" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I30" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I31" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I32" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I33" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I34" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I37" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I38" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I39" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I40" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I41" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I42" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="34"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="7">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/security/hc_info.xlsx
+++ b/config/security/hc_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\adoration\config\security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8843F4-D7C9-4E8E-8407-3EB73DF7035E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637CF950-AE31-41FB-B99F-E86B652766A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1230" windowWidth="24585" windowHeight="12450" xr2:uid="{0455A818-22EF-4517-BB38-855DBC0A67FD}"/>
+    <workbookView xWindow="1365" yWindow="915" windowWidth="26580" windowHeight="11385" xr2:uid="{0455A818-22EF-4517-BB38-855DBC0A67FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Órakoordinátor" sheetId="13" r:id="rId1"/>
@@ -338,7 +338,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,41 +384,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,7 @@
   <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,20 +741,20 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -765,10 +765,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -781,20 +781,20 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
@@ -807,11 +807,11 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -822,14 +822,14 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
@@ -852,228 +852,228 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="26"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="26"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="26"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="26"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="26"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="26"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="26"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="26"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="30"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
